--- a/data/trans_dic/CAGE_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CAGE_R-Clase-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.01119208444342183</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.02214512533563487</v>
+        <v>0.02214512533563488</v>
       </c>
     </row>
     <row r="5">
@@ -711,35 +711,35 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.00895955291738304</v>
+        <v>0.008468727006722925</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.004461498758820895</v>
+        <v>0.004444529840330248</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0132740628234196</v>
+        <v>0.01412103688211905</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="inlineStr"/>
       <c r="I5" s="5" t="n">
-        <v>0.002639048452587824</v>
+        <v>0.002667908506863047</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.003104152105447097</v>
+        <v>0.00319878841471951</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.004826322979782737</v>
+        <v>0.005116518104958888</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.004936098697379928</v>
+        <v>0.004944376148503892</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01130277108618336</v>
+        <v>0.01231114477061754</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01089377364230511</v>
+        <v>0.01185962372739153</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03880445735566456</v>
+        <v>0.03839366394922789</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03189772794426949</v>
+        <v>0.02987157216875595</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05088821179074417</v>
+        <v>0.05291022874634428</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0161670338656032</v>
+        <v>0.01616933243789187</v>
       </c>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="n">
-        <v>0.03254644349440896</v>
+        <v>0.03217352399430076</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03306636586390051</v>
+        <v>0.03339054049717108</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.00864572567709777</v>
+        <v>0.008578454264610546</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.02025353450201753</v>
+        <v>0.02221995098371026</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02353878312087729</v>
+        <v>0.02230187299780232</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.03691939645244215</v>
+        <v>0.03821003055636368</v>
       </c>
     </row>
     <row r="7">
@@ -843,13 +843,13 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.002389497410031173</v>
+        <v>0.002385856799309951</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.002427914480331933</v>
+        <v>0.002433294171144656</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.00315434407190891</v>
+        <v>0.003127419052577889</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
@@ -858,22 +858,22 @@
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.002512448859703916</v>
+        <v>0.002499589633478636</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.009801399671488175</v>
+        <v>0.00975385304904103</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.001301790311774656</v>
+        <v>0.001313419214888457</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.002781822234938286</v>
+        <v>0.002639318675597475</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.002978789914880595</v>
+        <v>0.003556366456465816</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.006565325100131665</v>
+        <v>0.007846632827354346</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01705689703920083</v>
+        <v>0.01991864575059618</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03920089402847671</v>
+        <v>0.04534281937735755</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02255006253418186</v>
+        <v>0.02390891725352507</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03374310125813503</v>
+        <v>0.03215925077181905</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01400197333530898</v>
+        <v>0.01692370883177537</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01698032792334035</v>
+        <v>0.01690329358894775</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02309008794360554</v>
+        <v>0.02256817447779173</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05549344474108892</v>
+        <v>0.05480221219363627</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01130849227290292</v>
+        <v>0.01217550789356063</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02314127207148171</v>
+        <v>0.02273585824526466</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01709128012374482</v>
+        <v>0.01787634015864732</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03196993547695732</v>
+        <v>0.03135032533669421</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.01681065393012308</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.03483459147969514</v>
+        <v>0.03483459147969513</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0.0158180871381549</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.02892916895510262</v>
+        <v>0.02892916895510261</v>
       </c>
     </row>
     <row r="11">
@@ -976,16 +976,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.001831112846413458</v>
+        <v>0.003197916717599525</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.008927178132409711</v>
+        <v>0.009866753523063522</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.007803770622946646</v>
+        <v>0.007817036981653916</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01453780570174453</v>
+        <v>0.01434784442419128</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="inlineStr"/>
@@ -994,16 +994,16 @@
       </c>
       <c r="J11" s="5" t="inlineStr"/>
       <c r="K11" s="5" t="n">
-        <v>0.002416113131176089</v>
+        <v>0.002475926375613796</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.006882525084652539</v>
+        <v>0.006883747800292155</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.007829079395898093</v>
+        <v>0.008128330521637916</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01168832966168106</v>
+        <v>0.009321867956716034</v>
       </c>
     </row>
     <row r="12">
@@ -1014,34 +1014,34 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01839916445753371</v>
+        <v>0.01858836707868462</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03575566186191918</v>
+        <v>0.03620598917869221</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03117254114387587</v>
+        <v>0.03114531093569079</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07328358239099138</v>
+        <v>0.07286374085191968</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.04583512362905767</v>
+        <v>0.03939724740138809</v>
       </c>
       <c r="J12" s="5" t="inlineStr"/>
       <c r="K12" s="5" t="n">
-        <v>0.01454247779885815</v>
+        <v>0.014359784372331</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02554669859380818</v>
+        <v>0.02679907064061161</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02849346956841484</v>
+        <v>0.02905801459993279</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.06441634449180335</v>
+        <v>0.06372829866540852</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.003466447266552446</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.01831791916763944</v>
+        <v>0.01831791916763943</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.007983434090819906</v>
@@ -1089,7 +1089,7 @@
         <v>0.01009233453235338</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.02185887034707503</v>
+        <v>0.02185887034707502</v>
       </c>
     </row>
     <row r="14">
@@ -1100,16 +1100,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.00522568537421988</v>
+        <v>0.005698344375245686</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01296700905052291</v>
+        <v>0.0124978700740352</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.009016432776881989</v>
+        <v>0.008766190558269807</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01314785809832979</v>
+        <v>0.01126466448977115</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
@@ -1118,22 +1118,22 @@
         <v>0</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0009990853643238537</v>
+        <v>0.0009980171264654142</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.004861217847954864</v>
+        <v>0.005407487206769267</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.004562261116314816</v>
+        <v>0.004670919879342137</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.008114889488963382</v>
+        <v>0.008379253232106696</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.006098792537943301</v>
+        <v>0.005968849663774627</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01288012166546883</v>
+        <v>0.01257283347224427</v>
       </c>
     </row>
     <row r="15">
@@ -1144,40 +1144,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01807099043988141</v>
+        <v>0.01834272162424969</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02949600526061368</v>
+        <v>0.03098040631583186</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02578137989885701</v>
+        <v>0.02553478908074156</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04312836496339276</v>
+        <v>0.03957060687168613</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.01149855364398928</v>
+        <v>0.01469919485354637</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.007885534831529923</v>
+        <v>0.006527896935564797</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.009437843599153221</v>
+        <v>0.009825005461906778</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05192649828202635</v>
+        <v>0.05962972285557473</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01339010054075818</v>
+        <v>0.01373950205870954</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.01819105834971142</v>
+        <v>0.01899340306825789</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.0155153119959152</v>
+        <v>0.01594366206520791</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03701289939140989</v>
+        <v>0.03575181489157332</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>0.007404728027966337</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.02849053702203751</v>
+        <v>0.02849053702203752</v>
       </c>
     </row>
     <row r="17">
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.002876313205805771</v>
+        <v>0.002799060975675973</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.009020498689524844</v>
+        <v>0.00856394492490278</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.006873594248400167</v>
+        <v>0.006145026437319843</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0178370763274637</v>
+        <v>0.01753225538649685</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.001788336706291198</v>
+        <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.006845826696698057</v>
+        <v>0.00719998643458047</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.003705841403897334</v>
+        <v>0.003308482176074227</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.004647141423456107</v>
+        <v>0.005122278963577418</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.003266863234238569</v>
+        <v>0.003507727116992714</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.01622227726837638</v>
+        <v>0.01644922196825917</v>
       </c>
     </row>
     <row r="18">
@@ -1280,40 +1280,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02572131799336398</v>
+        <v>0.03111458587456984</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03342317598562111</v>
+        <v>0.03213597424165641</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02953276828900222</v>
+        <v>0.02689857965331362</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06548582407977711</v>
+        <v>0.06373655510922116</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.01833284704815151</v>
+        <v>0.01937858645656178</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.009110950912875004</v>
+        <v>0.01047067511551502</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.008039514724205584</v>
+        <v>0.007550806548749621</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.04510491600649984</v>
+        <v>0.04103585114734572</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01744895915226541</v>
+        <v>0.0167406517801697</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.01525326496132477</v>
+        <v>0.01520511172377663</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.0132169301209724</v>
+        <v>0.01305842256463258</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.04888943217243155</v>
+        <v>0.04909590848803368</v>
       </c>
     </row>
     <row r="19">
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.0120776673342722</v>
+        <v>0.01232394812879765</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.007523507974760498</v>
+        <v>0.009579371451726881</v>
       </c>
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="n">
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.0008684410442674202</v>
+        <v>0.0008700567561927537</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.002862704573310604</v>
+        <v>0.00274888660386899</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.003634283493815779</v>
+        <v>0.003575836400479687</v>
       </c>
       <c r="N20" s="5" t="n">
         <v>0</v>
@@ -1414,38 +1414,38 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.01763975240244477</v>
+        <v>0.0179125626565868</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05485520824792395</v>
+        <v>0.05150711212296834</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.04164195099770747</v>
+        <v>0.04184672472845496</v>
       </c>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="n">
-        <v>0.004081609446168251</v>
+        <v>0.004075341940404036</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.004467542579508958</v>
+        <v>0.004456910376355038</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.008347005059082412</v>
+        <v>0.008883924802832619</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.07988392156035794</v>
+        <v>0.08753337851892518</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.004694134141170984</v>
+        <v>0.004412789145094671</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.01153603778626646</v>
+        <v>0.011078364183428</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.01259571446051258</v>
+        <v>0.01292425955479502</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.05275629413493441</v>
+        <v>0.05294834056111963</v>
       </c>
     </row>
     <row r="22">
@@ -1469,7 +1469,7 @@
         <v>0.01440760538666899</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.02466142282197163</v>
+        <v>0.02466142282197164</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.00274965910756945</v>
@@ -1504,40 +1504,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.005249614561870783</v>
+        <v>0.004915190881145598</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01480107463619024</v>
+        <v>0.01482430378423208</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01060579041446566</v>
+        <v>0.01054908081068408</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01737038246177467</v>
+        <v>0.01781811735875091</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.001223274884045202</v>
+        <v>0.001267642333528043</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.0005626678598830604</v>
+        <v>0.0005580532265832052</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.002732289834370303</v>
+        <v>0.002773574173500059</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.009940038420324086</v>
+        <v>0.00966106878015768</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.003632194945294085</v>
+        <v>0.003620915027059777</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.007868421934013263</v>
+        <v>0.007998940307915117</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.007390046086151634</v>
+        <v>0.007348921833657681</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.01698057091904484</v>
+        <v>0.01687206463607222</v>
       </c>
     </row>
     <row r="24">
@@ -1548,40 +1548,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01161018343529292</v>
+        <v>0.01145246034341997</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02459814872469382</v>
+        <v>0.02479106678794781</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01954509820798343</v>
+        <v>0.01932498615982924</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.03371699930098576</v>
+        <v>0.03372926550731975</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.00506347149524397</v>
+        <v>0.005355982958252931</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.00318113852722032</v>
+        <v>0.003169121431095988</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.007499403914501507</v>
+        <v>0.00782506772835298</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.02843144214108997</v>
+        <v>0.02905322058300289</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.007266615503674935</v>
+        <v>0.007192313561595733</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.0128910149534352</v>
+        <v>0.01299705780736536</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.01234083265069919</v>
+        <v>0.01238407033792752</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.02946318319874537</v>
+        <v>0.0302077898721948</v>
       </c>
     </row>
     <row r="25">
@@ -1857,35 +1857,35 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3917</v>
+        <v>3703</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1914</v>
+        <v>1907</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3996</v>
+        <v>4251</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="n">
-        <v>916</v>
+        <v>926</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>3628</v>
+        <v>3846</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>3831</v>
+        <v>3838</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>5333</v>
+        <v>5809</v>
       </c>
     </row>
     <row r="7">
@@ -1896,38 +1896,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>5161</v>
+        <v>5619</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>16966</v>
+        <v>16786</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13687</v>
+        <v>12818</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>15321</v>
+        <v>15929</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>4958</v>
+        <v>4959</v>
       </c>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="n">
-        <v>11295</v>
+        <v>11166</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>5646</v>
+        <v>5702</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>6748</v>
+        <v>6695</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>15224</v>
+        <v>16702</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>18270</v>
+        <v>17310</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>17419</v>
+        <v>18028</v>
       </c>
     </row>
     <row r="8">
@@ -2033,13 +2033,13 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1401</v>
+        <v>1394</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>2105</v>
+        <v>1997</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>2233</v>
+        <v>2665</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>2405</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="11">
@@ -2074,40 +2074,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>6259</v>
+        <v>7309</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>16417</v>
+        <v>18989</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>8506</v>
+        <v>9019</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>7537</v>
+        <v>7183</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>5207</v>
+        <v>6293</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>5740</v>
+        <v>5713</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>8596</v>
+        <v>8402</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>7930</v>
+        <v>7831</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>8355</v>
+        <v>8995</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>17513</v>
+        <v>17207</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>12810</v>
+        <v>13398</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>11709</v>
+        <v>11482</v>
       </c>
     </row>
     <row r="12">
@@ -2210,16 +2210,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>993</v>
+        <v>1735</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5619</v>
+        <v>6210</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4073</v>
+        <v>4080</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3316</v>
+        <v>3273</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
@@ -2228,16 +2228,16 @@
       </c>
       <c r="J14" s="6" t="inlineStr"/>
       <c r="K14" s="6" t="n">
-        <v>1716</v>
+        <v>1758</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>6122</v>
+        <v>6123</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>5387</v>
+        <v>5593</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>3210</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="15">
@@ -2248,34 +2248,34 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9980</v>
+        <v>10082</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>22505</v>
+        <v>22789</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>16269</v>
+        <v>16255</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>16717</v>
+        <v>16621</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>7614</v>
+        <v>6545</v>
       </c>
       <c r="J15" s="6" t="inlineStr"/>
       <c r="K15" s="6" t="n">
-        <v>10328</v>
+        <v>10198</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>22725</v>
+        <v>23839</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>19605</v>
+        <v>19993</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>17693</v>
+        <v>17505</v>
       </c>
     </row>
     <row r="16">
@@ -2378,16 +2378,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6471</v>
+        <v>7056</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>15029</v>
+        <v>14485</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>10366</v>
+        <v>10078</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>7103</v>
+        <v>6086</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
@@ -2396,22 +2396,22 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1106</v>
+        <v>1230</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>8908</v>
+        <v>9121</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>15627</v>
+        <v>16136</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>12048</v>
+        <v>11792</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>9889</v>
+        <v>9653</v>
       </c>
     </row>
     <row r="19">
@@ -2422,40 +2422,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>22378</v>
+        <v>22714</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>34186</v>
+        <v>35907</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>29639</v>
+        <v>29356</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>23301</v>
+        <v>21379</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>8213</v>
+        <v>10499</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>6046</v>
+        <v>5005</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>7794</v>
+        <v>8114</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>11814</v>
+        <v>13566</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>26146</v>
+        <v>26828</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>35030</v>
+        <v>36575</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>30651</v>
+        <v>31497</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>28418</v>
+        <v>27449</v>
       </c>
     </row>
     <row r="20">
@@ -2558,19 +2558,19 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1008</v>
+        <v>981</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>4606</v>
+        <v>4373</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>4266</v>
+        <v>3814</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>4584</v>
+        <v>4506</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1017</v>
+        <v>0</v>
       </c>
       <c r="H22" s="6" t="n">
         <v>0</v>
@@ -2579,19 +2579,19 @@
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1049</v>
+        <v>1103</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>3407</v>
+        <v>3042</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>5912</v>
+        <v>6516</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>4440</v>
+        <v>4767</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>6655</v>
+        <v>6748</v>
       </c>
     </row>
     <row r="23">
@@ -2602,40 +2602,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>9017</v>
+        <v>10907</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>17066</v>
+        <v>16408</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>18331</v>
+        <v>16696</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>16829</v>
+        <v>16380</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>10427</v>
+        <v>11022</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>6938</v>
+        <v>7974</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>5935</v>
+        <v>5574</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>6912</v>
+        <v>6289</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>16041</v>
+        <v>15390</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>19404</v>
+        <v>19343</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>17961</v>
+        <v>17746</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>20056</v>
+        <v>20141</v>
       </c>
     </row>
     <row r="24">
@@ -2741,10 +2741,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>3223</v>
+        <v>3289</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2160</v>
+        <v>2751</v>
       </c>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="n">
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="J26" s="6" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>3940</v>
+        <v>3783</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>4976</v>
+        <v>4896</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0</v>
@@ -2780,38 +2780,38 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5260</v>
+        <v>5342</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>14640</v>
+        <v>13746</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>11957</v>
+        <v>12016</v>
       </c>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="n">
-        <v>5097</v>
+        <v>5089</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>4956</v>
+        <v>4944</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>9032</v>
+        <v>9613</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>10103</v>
+        <v>11070</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>7262</v>
+        <v>6826</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>15876</v>
+        <v>15246</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>17246</v>
+        <v>17696</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>11201</v>
+        <v>11242</v>
       </c>
     </row>
     <row r="28">
@@ -2914,40 +2914,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>17167</v>
+        <v>16074</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>50648</v>
+        <v>50727</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>35908</v>
+        <v>35716</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>28412</v>
+        <v>29144</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>4132</v>
+        <v>4282</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1998</v>
+        <v>1981</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>9649</v>
+        <v>9795</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>8622</v>
+        <v>8380</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>24148</v>
+        <v>24073</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>54859</v>
+        <v>55769</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>51119</v>
+        <v>50835</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>42504</v>
+        <v>42232</v>
       </c>
     </row>
     <row r="31">
@@ -2958,40 +2958,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>37968</v>
+        <v>37452</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>84173</v>
+        <v>84833</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>66174</v>
+        <v>65429</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>55149</v>
+        <v>55169</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>17105</v>
+        <v>18093</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>11293</v>
+        <v>11251</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>26485</v>
+        <v>27635</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>24662</v>
+        <v>25202</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>48311</v>
+        <v>47817</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>89877</v>
+        <v>90616</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>85365</v>
+        <v>85665</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>73749</v>
+        <v>75612</v>
       </c>
     </row>
     <row r="32">
